--- a/HMM_results.xlsx
+++ b/HMM_results.xlsx
@@ -130,7 +130,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Inferring weather events from weather measures - especially useful for extreme events like Thunderstorms </a:t>
+              <a:t>Inferring weather events from weather measures</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -545,14 +545,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -900,7 +900,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
